--- a/サンプルプロジェクト/ソースコード/proman-project/proman-jmeter/image/tool-overview.xlsx
+++ b/サンプルプロジェクト/ソースコード/proman-project/proman-jmeter/image/tool-overview.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\gitbucket\pre-release\nablarch-development-guide\サンプルプロジェクト\ソースコード\proman-project\proman-jmeter\image\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9709D961-BD38-45FC-A57E-9F360FBCEFD1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F72FD7-27EC-4E7B-B8F5-FE07BCD7C416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="-120" windowWidth="27915" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2630,9 +2625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <sheetData/>
